--- a/Code/Results/Cases/Case_9_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01300357424768</v>
+        <v>1.012161703910377</v>
       </c>
       <c r="D2">
-        <v>1.034928801976393</v>
+        <v>1.033385867938464</v>
       </c>
       <c r="E2">
-        <v>1.017687044812702</v>
+        <v>1.016969110775842</v>
       </c>
       <c r="F2">
-        <v>1.037237171651834</v>
+        <v>1.036172557903263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053039400146381</v>
+        <v>1.052244164027464</v>
       </c>
       <c r="J2">
-        <v>1.03480218701718</v>
+        <v>1.033984647022862</v>
       </c>
       <c r="K2">
-        <v>1.04592206020906</v>
+        <v>1.044398882688321</v>
       </c>
       <c r="L2">
-        <v>1.028905349946684</v>
+        <v>1.028196994485281</v>
       </c>
       <c r="M2">
-        <v>1.048201009401032</v>
+        <v>1.047149943953422</v>
       </c>
       <c r="N2">
-        <v>1.015451847418361</v>
+        <v>1.016182894320591</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046720229841259</v>
+        <v>1.045888388639559</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043541148805777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042472862216518</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023816012912918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016319668201069</v>
+        <v>1.015361792500315</v>
       </c>
       <c r="D3">
-        <v>1.037221278659712</v>
+        <v>1.035519169031928</v>
       </c>
       <c r="E3">
-        <v>1.020262618829864</v>
+        <v>1.019442136993616</v>
       </c>
       <c r="F3">
-        <v>1.039682849175085</v>
+        <v>1.03850415009318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053907154528851</v>
+        <v>1.05302132245192</v>
       </c>
       <c r="J3">
-        <v>1.036375117678731</v>
+        <v>1.035442263013736</v>
       </c>
       <c r="K3">
-        <v>1.047399066676009</v>
+        <v>1.045716884416173</v>
       </c>
       <c r="L3">
-        <v>1.030642637449138</v>
+        <v>1.029832151835832</v>
       </c>
       <c r="M3">
-        <v>1.049831961149997</v>
+        <v>1.048666972336844</v>
       </c>
       <c r="N3">
-        <v>1.015982500461767</v>
+        <v>1.016572499055902</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048011006656303</v>
+        <v>1.04708900502417</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044582859075452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043401869177436</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024070634888236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018431027731582</v>
+        <v>1.017399935805024</v>
       </c>
       <c r="D4">
-        <v>1.038684455797386</v>
+        <v>1.036881419639035</v>
       </c>
       <c r="E4">
-        <v>1.021908027029211</v>
+        <v>1.021022759155314</v>
       </c>
       <c r="F4">
-        <v>1.0412465249502</v>
+        <v>1.039995600843176</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054450718794519</v>
+        <v>1.053507360462289</v>
       </c>
       <c r="J4">
-        <v>1.037374734320329</v>
+        <v>1.036368784325642</v>
       </c>
       <c r="K4">
-        <v>1.04833737852702</v>
+        <v>1.046554198467264</v>
       </c>
       <c r="L4">
-        <v>1.031749040732651</v>
+        <v>1.030873910008843</v>
       </c>
       <c r="M4">
-        <v>1.050871377887615</v>
+        <v>1.049634137570434</v>
       </c>
       <c r="N4">
-        <v>1.016319790312871</v>
+        <v>1.016820235785397</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048833626400793</v>
+        <v>1.0478544441496</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045247206063692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043994886406713</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024230134904588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019313463734309</v>
+        <v>1.018251870368946</v>
       </c>
       <c r="D5">
-        <v>1.039298757251964</v>
+        <v>1.0374536601035</v>
       </c>
       <c r="E5">
-        <v>1.022597397044678</v>
+        <v>1.021685117824947</v>
       </c>
       <c r="F5">
-        <v>1.04190229034938</v>
+        <v>1.040621278615199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054677191858499</v>
+        <v>1.05370982245285</v>
       </c>
       <c r="J5">
-        <v>1.037793478251397</v>
+        <v>1.03675700984689</v>
       </c>
       <c r="K5">
-        <v>1.048731628468804</v>
+        <v>1.046906317920774</v>
       </c>
       <c r="L5">
-        <v>1.032212571382409</v>
+        <v>1.031310461318263</v>
       </c>
       <c r="M5">
-        <v>1.051307387521027</v>
+        <v>1.050040020135304</v>
       </c>
       <c r="N5">
-        <v>1.016461439661609</v>
+        <v>1.016924319211153</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049178694782144</v>
+        <v>1.04817566968227</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045533087332214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044251690058705</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024297169569651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019464617029108</v>
+        <v>1.018397748663821</v>
       </c>
       <c r="D6">
-        <v>1.039406391020924</v>
+        <v>1.037554122848751</v>
       </c>
       <c r="E6">
-        <v>1.022716006378829</v>
+        <v>1.021799043647189</v>
       </c>
       <c r="F6">
-        <v>1.042015549916107</v>
+        <v>1.040729393626981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054717643717285</v>
+        <v>1.053746158237607</v>
       </c>
       <c r="J6">
-        <v>1.03786691122014</v>
+        <v>1.036825164945653</v>
       </c>
       <c r="K6">
-        <v>1.048802301089264</v>
+        <v>1.046969806787189</v>
       </c>
       <c r="L6">
-        <v>1.032293271791995</v>
+        <v>1.031386483762269</v>
       </c>
       <c r="M6">
-        <v>1.051383751851338</v>
+        <v>1.05011123273387</v>
       </c>
       <c r="N6">
-        <v>1.016486700208423</v>
+        <v>1.016942905463688</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049239131310717</v>
+        <v>1.048232029085354</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045591737722275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044306130251081</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024309841542524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018452131166999</v>
+        <v>1.017426685692899</v>
       </c>
       <c r="D7">
-        <v>1.038705452656321</v>
+        <v>1.036906180470089</v>
       </c>
       <c r="E7">
-        <v>1.021925725137426</v>
+        <v>1.021045512259639</v>
       </c>
       <c r="F7">
-        <v>1.041264447794881</v>
+        <v>1.040016755215671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054460928084718</v>
+        <v>1.053520400102042</v>
       </c>
       <c r="J7">
-        <v>1.037389401368905</v>
+        <v>1.036388949456803</v>
       </c>
       <c r="K7">
-        <v>1.048355292256812</v>
+        <v>1.046575827051703</v>
       </c>
       <c r="L7">
-        <v>1.031763621282456</v>
+        <v>1.030893483809343</v>
       </c>
       <c r="M7">
-        <v>1.050886261893388</v>
+        <v>1.049652212587397</v>
       </c>
       <c r="N7">
-        <v>1.016325892206791</v>
+        <v>1.016852325660281</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048845405959174</v>
+        <v>1.047868749169469</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045279836318004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044032143001596</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024236546645801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014143089031316</v>
+        <v>1.013281027281871</v>
       </c>
       <c r="D8">
-        <v>1.035723570239416</v>
+        <v>1.034140312263736</v>
       </c>
       <c r="E8">
-        <v>1.018572511745475</v>
+        <v>1.017837021786763</v>
       </c>
       <c r="F8">
-        <v>1.038078980431201</v>
+        <v>1.036987155982596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053345264477726</v>
+        <v>1.052529283967764</v>
       </c>
       <c r="J8">
-        <v>1.035348836306508</v>
+        <v>1.034510866399582</v>
       </c>
       <c r="K8">
-        <v>1.046440445436418</v>
+        <v>1.044876867223832</v>
       </c>
       <c r="L8">
-        <v>1.029506648758365</v>
+        <v>1.028780680521098</v>
       </c>
       <c r="M8">
-        <v>1.048766716342505</v>
+        <v>1.047688378598425</v>
       </c>
       <c r="N8">
-        <v>1.015637744444201</v>
+        <v>1.016403176233166</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047167944999751</v>
+        <v>1.046314520282049</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04393043372532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042835849247603</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023912800130468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006261901462633</v>
+        <v>1.005682630252873</v>
       </c>
       <c r="D9">
-        <v>1.030289271056031</v>
+        <v>1.029088849887632</v>
       </c>
       <c r="E9">
-        <v>1.012482456142129</v>
+        <v>1.011996576354535</v>
       </c>
       <c r="F9">
-        <v>1.032302080643096</v>
+        <v>1.031485662073597</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051228078118521</v>
+        <v>1.050629838257133</v>
       </c>
       <c r="J9">
-        <v>1.03159545727216</v>
+        <v>1.031036303812592</v>
       </c>
       <c r="K9">
-        <v>1.042909323158461</v>
+        <v>1.041726973959719</v>
       </c>
       <c r="L9">
-        <v>1.025376209224254</v>
+        <v>1.024897970425066</v>
       </c>
       <c r="M9">
-        <v>1.044891950525584</v>
+        <v>1.044087756139626</v>
       </c>
       <c r="N9">
-        <v>1.014370529158965</v>
+        <v>1.015483505234341</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.0441013492876</v>
+        <v>1.04346488623246</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04143057566726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040605259581506</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023290098815306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000859266031431</v>
+        <v>1.000502687297908</v>
       </c>
       <c r="D10">
-        <v>1.026611274821495</v>
+        <v>1.025692384513855</v>
       </c>
       <c r="E10">
-        <v>1.008346631170243</v>
+        <v>1.008056933149627</v>
       </c>
       <c r="F10">
-        <v>1.028460125325339</v>
+        <v>1.027849334627756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.0497533885429</v>
+        <v>1.049317675129544</v>
       </c>
       <c r="J10">
-        <v>1.029038833552529</v>
+        <v>1.02869637502617</v>
       </c>
       <c r="K10">
-        <v>1.040516121412085</v>
+        <v>1.039612748846907</v>
       </c>
       <c r="L10">
-        <v>1.022566802358896</v>
+        <v>1.022282225137509</v>
       </c>
       <c r="M10">
-        <v>1.04233385781989</v>
+        <v>1.041733330084385</v>
       </c>
       <c r="N10">
-        <v>1.013513353542817</v>
+        <v>1.014978987720168</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042128009252068</v>
+        <v>1.041652762113034</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039755163454093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039128776754945</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022869854319767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9988502961084447</v>
+        <v>0.9985895006664144</v>
       </c>
       <c r="D11">
-        <v>1.025441601196109</v>
+        <v>1.024626973354819</v>
       </c>
       <c r="E11">
-        <v>1.006870592323261</v>
+        <v>1.006663061354521</v>
       </c>
       <c r="F11">
-        <v>1.027678914998057</v>
+        <v>1.027147231559738</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049354128898444</v>
+        <v>1.048981486278686</v>
       </c>
       <c r="J11">
-        <v>1.028270982447035</v>
+        <v>1.028021076014456</v>
       </c>
       <c r="K11">
-        <v>1.039899162662561</v>
+        <v>1.039098939701384</v>
       </c>
       <c r="L11">
-        <v>1.021664092143154</v>
+        <v>1.021460406604701</v>
       </c>
       <c r="M11">
-        <v>1.04209706681267</v>
+        <v>1.041574728670336</v>
       </c>
       <c r="N11">
-        <v>1.013300762113537</v>
+        <v>1.015057371259299</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042374871607018</v>
+        <v>1.041961708519686</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039351604639948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038801363411933</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022817308290567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9982206220574871</v>
+        <v>0.9979823329536973</v>
       </c>
       <c r="D12">
-        <v>1.025148461999215</v>
+        <v>1.024356985311015</v>
       </c>
       <c r="E12">
-        <v>1.006431030245203</v>
+        <v>1.00624109888906</v>
       </c>
       <c r="F12">
-        <v>1.02770030962359</v>
+        <v>1.027186698456073</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049286929254508</v>
+        <v>1.048928573178365</v>
       </c>
       <c r="J12">
-        <v>1.028100479733342</v>
+        <v>1.027872330223402</v>
       </c>
       <c r="K12">
-        <v>1.03980921255728</v>
+        <v>1.039031962430834</v>
       </c>
       <c r="L12">
-        <v>1.021436050371945</v>
+        <v>1.021249698185353</v>
       </c>
       <c r="M12">
-        <v>1.042315385199941</v>
+        <v>1.041810943363697</v>
       </c>
       <c r="N12">
-        <v>1.013277926684876</v>
+        <v>1.015141546989001</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042872567750666</v>
+        <v>1.042473694393917</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039288007703841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038754009750912</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022837525010059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9986235578797658</v>
+        <v>0.9983436465198368</v>
       </c>
       <c r="D13">
-        <v>1.025528470052128</v>
+        <v>1.024692459909686</v>
       </c>
       <c r="E13">
-        <v>1.006769565772476</v>
+        <v>1.006540755795204</v>
       </c>
       <c r="F13">
-        <v>1.02836532327973</v>
+        <v>1.027818450033713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049485641041029</v>
+        <v>1.049100208108667</v>
       </c>
       <c r="J13">
-        <v>1.028393451069825</v>
+        <v>1.028125393868446</v>
       </c>
       <c r="K13">
-        <v>1.040139951135582</v>
+        <v>1.039318904315648</v>
       </c>
       <c r="L13">
-        <v>1.021724608481442</v>
+        <v>1.021500092301058</v>
       </c>
       <c r="M13">
-        <v>1.042926264269528</v>
+        <v>1.042389105699397</v>
       </c>
       <c r="N13">
-        <v>1.013406304564651</v>
+        <v>1.015205494309412</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043631182163635</v>
+        <v>1.04320654494958</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039519370265572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038954160515737</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022921041350627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9993733443731798</v>
+        <v>0.9990362961704393</v>
       </c>
       <c r="D14">
-        <v>1.026099625891105</v>
+        <v>1.025202628524071</v>
       </c>
       <c r="E14">
-        <v>1.007358887652825</v>
+        <v>1.007078411407014</v>
       </c>
       <c r="F14">
-        <v>1.02912139221959</v>
+        <v>1.028528713566466</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049744833863273</v>
+        <v>1.04932227345344</v>
       </c>
       <c r="J14">
-        <v>1.028807907563371</v>
+        <v>1.028484932821494</v>
       </c>
       <c r="K14">
-        <v>1.040561919696124</v>
+        <v>1.039680779635489</v>
       </c>
       <c r="L14">
-        <v>1.022160136392023</v>
+        <v>1.021884857933782</v>
       </c>
       <c r="M14">
-        <v>1.043530530159873</v>
+        <v>1.042948245404283</v>
       </c>
       <c r="N14">
-        <v>1.013564494252755</v>
+        <v>1.015242444892928</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04428156591634</v>
+        <v>1.043821317135885</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039819128558773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039211565132234</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023008481485257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9997863937646477</v>
+        <v>0.9994215623754433</v>
       </c>
       <c r="D15">
-        <v>1.026394658285776</v>
+        <v>1.025467863186616</v>
       </c>
       <c r="E15">
-        <v>1.007677475507543</v>
+        <v>1.00737227458875</v>
       </c>
       <c r="F15">
-        <v>1.029462672825056</v>
+        <v>1.028847573879044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049871345731233</v>
+        <v>1.049430654101704</v>
       </c>
       <c r="J15">
-        <v>1.029016919012281</v>
+        <v>1.028667190166116</v>
       </c>
       <c r="K15">
-        <v>1.040766142782742</v>
+        <v>1.039855608611655</v>
       </c>
       <c r="L15">
-        <v>1.022384912567543</v>
+        <v>1.022085324440098</v>
       </c>
       <c r="M15">
-        <v>1.043780598385331</v>
+        <v>1.043176204197695</v>
       </c>
       <c r="N15">
-        <v>1.013638907994253</v>
+        <v>1.015252131267286</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044516636350513</v>
+        <v>1.044038924388194</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039969354386382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039341577605288</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023046733914759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001996339290936</v>
+        <v>1.001503448092926</v>
       </c>
       <c r="D16">
-        <v>1.027886826787242</v>
+        <v>1.026819130500319</v>
       </c>
       <c r="E16">
-        <v>1.009358242296974</v>
+        <v>1.008940814800276</v>
       </c>
       <c r="F16">
-        <v>1.03099664963009</v>
+        <v>1.030275795046052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050476326947866</v>
+        <v>1.049950488994455</v>
       </c>
       <c r="J16">
-        <v>1.03005444222948</v>
+        <v>1.029580947918026</v>
       </c>
       <c r="K16">
-        <v>1.041734937036037</v>
+        <v>1.04068516467982</v>
       </c>
       <c r="L16">
-        <v>1.023524374240955</v>
+        <v>1.023114285789296</v>
       </c>
       <c r="M16">
-        <v>1.044792826229651</v>
+        <v>1.044083973868509</v>
       </c>
       <c r="N16">
-        <v>1.013981539417455</v>
+        <v>1.015285638264756</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045278111004612</v>
+        <v>1.044717819667609</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04065746623456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03993154323511</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023208398574504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003301721731408</v>
+        <v>1.002747075915565</v>
       </c>
       <c r="D17">
-        <v>1.028734248467009</v>
+        <v>1.027595070530267</v>
       </c>
       <c r="E17">
-        <v>1.010342653546794</v>
+        <v>1.009871747123316</v>
       </c>
       <c r="F17">
-        <v>1.031773671742422</v>
+        <v>1.030999555688692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05080266901864</v>
+        <v>1.050234275376584</v>
       </c>
       <c r="J17">
-        <v>1.030633608265607</v>
+        <v>1.030100095827388</v>
       </c>
       <c r="K17">
-        <v>1.042256545935503</v>
+        <v>1.041135960272743</v>
       </c>
       <c r="L17">
-        <v>1.024171736632671</v>
+        <v>1.023708874824165</v>
       </c>
       <c r="M17">
-        <v>1.045246621360259</v>
+        <v>1.044485038337859</v>
       </c>
       <c r="N17">
-        <v>1.014161597737497</v>
+        <v>1.015320428280927</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045508215655762</v>
+        <v>1.044906185335368</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04102883120413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040253088629566</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023286985923778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003936585553954</v>
+        <v>1.003364840706426</v>
       </c>
       <c r="D18">
-        <v>1.029078621021391</v>
+        <v>1.027917225669862</v>
       </c>
       <c r="E18">
-        <v>1.010802960874429</v>
+        <v>1.010318359215627</v>
       </c>
       <c r="F18">
-        <v>1.031918346490453</v>
+        <v>1.031127686897421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050905561474206</v>
+        <v>1.050324365446728</v>
       </c>
       <c r="J18">
-        <v>1.030851693932668</v>
+        <v>1.030301328353013</v>
       </c>
       <c r="K18">
-        <v>1.042413612014189</v>
+        <v>1.041270864032493</v>
       </c>
       <c r="L18">
-        <v>1.024437790670172</v>
+        <v>1.023961329960797</v>
       </c>
       <c r="M18">
-        <v>1.045207969380048</v>
+        <v>1.044429909371982</v>
       </c>
       <c r="N18">
-        <v>1.014209544941598</v>
+        <v>1.015316217900354</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04524089898536</v>
+        <v>1.044625716327001</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041128318681335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040335771184469</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023291386255722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003964478322671</v>
+        <v>1.003411875954362</v>
       </c>
       <c r="D19">
-        <v>1.028972275919513</v>
+        <v>1.027830819417715</v>
       </c>
       <c r="E19">
-        <v>1.010788778157256</v>
+        <v>1.010322771703772</v>
       </c>
       <c r="F19">
-        <v>1.031485421863431</v>
+        <v>1.030709317838203</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050809981069879</v>
+        <v>1.05024104340149</v>
       </c>
       <c r="J19">
-        <v>1.030744787907638</v>
+        <v>1.030212726133094</v>
       </c>
       <c r="K19">
-        <v>1.042247006154655</v>
+        <v>1.041123783670862</v>
       </c>
       <c r="L19">
-        <v>1.02436028725308</v>
+        <v>1.023902067556042</v>
       </c>
       <c r="M19">
-        <v>1.044720188424908</v>
+        <v>1.043956399245589</v>
       </c>
       <c r="N19">
-        <v>1.014141577984873</v>
+        <v>1.015259742983693</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044531122119065</v>
+        <v>1.043927027106974</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041016879082847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040238762064159</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023230607158391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002282092604067</v>
+        <v>1.001847713507736</v>
       </c>
       <c r="D20">
-        <v>1.02759472954335</v>
+        <v>1.02658840269163</v>
       </c>
       <c r="E20">
-        <v>1.009437296429859</v>
+        <v>1.009078566360871</v>
       </c>
       <c r="F20">
-        <v>1.029478981856432</v>
+        <v>1.028802705334674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050157124259385</v>
+        <v>1.049668920382562</v>
       </c>
       <c r="J20">
-        <v>1.029725325969696</v>
+        <v>1.029307594239469</v>
       </c>
       <c r="K20">
-        <v>1.041169113709223</v>
+        <v>1.040179301793139</v>
       </c>
       <c r="L20">
-        <v>1.023316207637232</v>
+        <v>1.022963636705736</v>
       </c>
       <c r="M20">
-        <v>1.043022554932867</v>
+        <v>1.042357320123138</v>
       </c>
       <c r="N20">
-        <v>1.013747066238225</v>
+        <v>1.015045549006198</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042662535115757</v>
+        <v>1.042136073616406</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040258673894163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039575273598009</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022985873113344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9981590544606801</v>
+        <v>0.9979895531044262</v>
       </c>
       <c r="D21">
-        <v>1.024755652422734</v>
+        <v>1.024033821807654</v>
       </c>
       <c r="E21">
-        <v>1.006281821681855</v>
+        <v>1.006158782858129</v>
       </c>
       <c r="F21">
-        <v>1.026434794203524</v>
+        <v>1.025973658399743</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048983735301252</v>
+        <v>1.048668817012182</v>
       </c>
       <c r="J21">
-        <v>1.027733947005234</v>
+        <v>1.027571571427036</v>
       </c>
       <c r="K21">
-        <v>1.039282724226814</v>
+        <v>1.038573736663212</v>
       </c>
       <c r="L21">
-        <v>1.021145152398446</v>
+        <v>1.021024407130068</v>
       </c>
       <c r="M21">
-        <v>1.040932080803675</v>
+        <v>1.040479112190222</v>
       </c>
       <c r="N21">
-        <v>1.013070924286853</v>
+        <v>1.014996224734138</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040967386710399</v>
+        <v>1.040608892566738</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038928148209201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038443628406155</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022661612855041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9955344100008627</v>
+        <v>0.9955311581900821</v>
       </c>
       <c r="D22">
-        <v>1.022959496002432</v>
+        <v>1.022416118853552</v>
       </c>
       <c r="E22">
-        <v>1.004282251803048</v>
+        <v>1.004307164417941</v>
       </c>
       <c r="F22">
-        <v>1.02454371545576</v>
+        <v>1.024217693307973</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048233482056652</v>
+        <v>1.04802689209532</v>
       </c>
       <c r="J22">
-        <v>1.026471861237365</v>
+        <v>1.026468753991844</v>
       </c>
       <c r="K22">
-        <v>1.038089441314621</v>
+        <v>1.037556214311512</v>
       </c>
       <c r="L22">
-        <v>1.019769351108312</v>
+        <v>1.019793775722722</v>
       </c>
       <c r="M22">
-        <v>1.039644148116641</v>
+        <v>1.039324189748836</v>
       </c>
       <c r="N22">
-        <v>1.012643658471469</v>
+        <v>1.014958544453191</v>
       </c>
       <c r="O22">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039948074281992</v>
+        <v>1.039694848447783</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038071021453629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037709470782147</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022455381154904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9969216350915431</v>
+        <v>0.9968203537998515</v>
       </c>
       <c r="D23">
-        <v>1.023902906944181</v>
+        <v>1.023257778557398</v>
       </c>
       <c r="E23">
-        <v>1.005337040880496</v>
+        <v>1.005274576987281</v>
       </c>
       <c r="F23">
-        <v>1.025540425496233</v>
+        <v>1.025136772562252</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048626914298888</v>
+        <v>1.048357818356238</v>
       </c>
       <c r="J23">
-        <v>1.027134912916307</v>
+        <v>1.027038003842626</v>
       </c>
       <c r="K23">
-        <v>1.038713059425515</v>
+        <v>1.038079677602132</v>
       </c>
       <c r="L23">
-        <v>1.020493127176102</v>
+        <v>1.020431855378553</v>
       </c>
       <c r="M23">
-        <v>1.040320848185822</v>
+        <v>1.039924512255855</v>
       </c>
       <c r="N23">
-        <v>1.012866882155771</v>
+        <v>1.014933982105832</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040483637226588</v>
+        <v>1.040169963836171</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038502358404497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03806905158132</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022559186876389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002299418343909</v>
+        <v>1.001867298786538</v>
       </c>
       <c r="D24">
-        <v>1.027579350708589</v>
+        <v>1.026574965214162</v>
       </c>
       <c r="E24">
-        <v>1.009443353262856</v>
+        <v>1.009086923336449</v>
       </c>
       <c r="F24">
-        <v>1.029425022204406</v>
+        <v>1.028750251124641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050140270304996</v>
+        <v>1.049653385084158</v>
       </c>
       <c r="J24">
-        <v>1.029709240460268</v>
+        <v>1.029293657567166</v>
       </c>
       <c r="K24">
-        <v>1.041138854509459</v>
+        <v>1.040150931597968</v>
       </c>
       <c r="L24">
-        <v>1.023306637990848</v>
+        <v>1.022956319727802</v>
       </c>
       <c r="M24">
-        <v>1.042954381768576</v>
+        <v>1.04229061519737</v>
       </c>
       <c r="N24">
-        <v>1.013735762995449</v>
+        <v>1.015033855056266</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042567899525355</v>
+        <v>1.042042574099831</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040210034655519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039525296590703</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022973346204386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008347999295566</v>
+        <v>1.007684835075674</v>
       </c>
       <c r="D25">
-        <v>1.031733657487104</v>
+        <v>1.030425769778858</v>
       </c>
       <c r="E25">
-        <v>1.014091119986366</v>
+        <v>1.013531058657609</v>
       </c>
       <c r="F25">
-        <v>1.033828238648047</v>
+        <v>1.032933612016617</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051803544035415</v>
+        <v>1.051143265781782</v>
       </c>
       <c r="J25">
-        <v>1.032597649415761</v>
+        <v>1.031956313043457</v>
       </c>
       <c r="K25">
-        <v>1.043858541650863</v>
+        <v>1.042569436325937</v>
       </c>
       <c r="L25">
-        <v>1.026474557902979</v>
+        <v>1.025922891929117</v>
       </c>
       <c r="M25">
-        <v>1.045923168112241</v>
+        <v>1.045041316764914</v>
       </c>
       <c r="N25">
-        <v>1.014710803308654</v>
+        <v>1.015697994198261</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04491748435965</v>
+        <v>1.044219562054971</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04213012617747</v>
+        <v>1.041232133008079</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023460452144644</v>
       </c>
     </row>
   </sheetData>
